--- a/PruebaDatos.xlsx
+++ b/PruebaDatos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefania Alvarez\Documents\Universidad\2025-1\Tesis Final\Modelos de prediccion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/a_streubel_uniandes_edu_co/Documents/Antonia Streubel/ANDES/Tesis/Código Tesis/Modelos-de-prediccion-Tesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE892C6F-43CB-4766-A8B0-9BE4DB7916BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{DE892C6F-43CB-4766-A8B0-9BE4DB7916BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB42BE5D-380F-4F40-915B-CC35574E8200}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen_Antioquia1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -482,7 +482,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -42847,8 +42847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="72" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -44489,7 +44489,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43">
-        <f t="shared" ref="A43:H52" si="2">A22</f>
+        <f t="shared" ref="A43:H43" si="2">A22</f>
         <v>2020</v>
       </c>
       <c r="B43">
